--- a/template/Tier2.xlsx
+++ b/template/Tier2.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyaoshen\go\src\github.com\liserjrqlxue\anno2xlsx\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0150ED51-0951-4F1E-95C4-6623DF370266}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBEAC1E-9C3C-4429-B529-E13334A048D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="28800" windowHeight="11175" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="11175" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tier2" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tier2!$A$1:$EG$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tier2!$A$1:$EH$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>#Chr</t>
   </si>
@@ -437,6 +437,10 @@
   </si>
   <si>
     <t>表型分值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,6 +513,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -848,19 +853,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFD027B-67B3-43CF-9934-C284ECAEF97B}">
-  <dimension ref="A1:EG1"/>
+  <dimension ref="A1:EH1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="EG1" sqref="CC1:EG1048576"/>
+      <selection activeCell="EH1" sqref="CC1:EH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="8.796875" hidden="1" customWidth="1"/>
     <col min="81" max="137" width="8.796875" hidden="1" customWidth="1"/>
+    <col min="138" max="138" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:138" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1272,10 +1278,14 @@
       <c r="EG1" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="EH1" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:EG1" xr:uid="{45882D55-7A7A-4094-9448-8D586764070A}"/>
+  <autoFilter ref="A1:EH1" xr:uid="{EF1EE19E-9769-4CC5-A620-39882ECD3329}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template/Tier2.xlsx
+++ b/template/Tier2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyaoshen\go\src\github.com\liserjrqlxue\anno2xlsx\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBEAC1E-9C3C-4429-B529-E13334A048D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B821590-DACB-4EF2-8654-0EB0AA0B23CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="11175" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tier2" sheetId="4" r:id="rId1"/>
+    <sheet name="附表" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tier2!$A$1:$EH$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">附表!$A$1:$EH$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>

--- a/template/Tier2.xlsx
+++ b/template/Tier2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyaoshen\go\src\github.com\liserjrqlxue\anno2xlsx\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093A2946-9854-4016-BCD2-1315652C5A60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE64CF3F-054F-40E8-BA2F-7738F1597FAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="11175" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -852,16 +852,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4924BC3-C42A-46AB-9CF7-08322CC791CE}">
-  <dimension ref="A1:EH1"/>
+  <dimension ref="A1:EI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="EH1" sqref="CC1:EH1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="CE1" sqref="CE1:EH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="81" max="138" width="0" hidden="1" customWidth="1"/>
+    <col min="83" max="138" width="8.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:138" x14ac:dyDescent="0.2">
@@ -977,22 +977,22 @@
         <v>66</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>83</v>
@@ -1004,265 +1004,265 @@
         <v>135</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CT1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CV1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CY1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="DA1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="DB1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DC1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DD1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DE1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DG1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DI1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DK1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DL1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DM1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DN1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DO1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c r="DP1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DR1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DS1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DT1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DU1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DV1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DW1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DX1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="DY1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="EA1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EB1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="EA1" s="2" t="s">
+      <c r="EC1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="EB1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="EC1" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="ED1" s="2" t="s">
         <v>125</v>

--- a/template/Tier2.xlsx
+++ b/template/Tier2.xlsx
@@ -1,40 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyaoshen\go\src\github.com\liserjrqlxue\anno2xlsx\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03AC330-DACC-4FA6-B309-87BA09FD76FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="37365" windowHeight="16440" tabRatio="534" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="534"/>
   </bookViews>
   <sheets>
     <sheet name="Product ID_Sample ID(proband)" sheetId="7" r:id="rId1"/>
     <sheet name="备注说明 or Note" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'备注说明 or Note'!$A$1:$F$49</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>fuqinmei</author>
+    <author>weixiuxiu</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +32,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>fuqinmei:</t>
+          <t>weixiuxiu:</t>
         </r>
         <r>
           <rPr>
@@ -56,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +54,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>fuqinmei:</t>
+          <t>weixiuxiu:</t>
         </r>
         <r>
           <rPr>
@@ -78,12 +67,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="A46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">weixiuxiu:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>将HGMD pmID信息展示为BGI in-house Database pmID</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="153">
   <si>
     <t>Tier2 Titles</t>
   </si>
@@ -91,6 +102,9 @@
     <t>中文附表</t>
   </si>
   <si>
+    <t>英文附表</t>
+  </si>
+  <si>
     <t>SampleID</t>
   </si>
   <si>
@@ -100,13 +114,13 @@
     <t>Start</t>
   </si>
   <si>
-    <t>5.Gene Symbol: Gene Symbol</t>
-  </si>
-  <si>
     <t>Stop</t>
   </si>
   <si>
-    <t>16.PVFD AF: the allele frequency of the sequencing population in the BGI in-house Database</t>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Call</t>
   </si>
   <si>
     <t>Gene Symbol</t>
@@ -124,10 +138,22 @@
     <t>ExIn_ID</t>
   </si>
   <si>
+    <t>Function</t>
+  </si>
+  <si>
     <t>Zygosity</t>
   </si>
   <si>
-    <t>Function</t>
+    <t>A.Depth</t>
+  </si>
+  <si>
+    <t>A.Ratio</t>
+  </si>
+  <si>
+    <t>RepeatTag</t>
+  </si>
+  <si>
+    <t>Filter</t>
   </si>
   <si>
     <t>rsID</t>
@@ -136,25 +162,94 @@
     <t>dbSNP Allele Freq</t>
   </si>
   <si>
+    <t>1000G EAS AF</t>
+  </si>
+  <si>
     <t>1000G AF</t>
   </si>
   <si>
     <t>ESP6500 AF</t>
   </si>
   <si>
-    <t>PVFD AF</t>
+    <t>ExAC EAS AF</t>
+  </si>
+  <si>
+    <t>ExAC AF</t>
+  </si>
+  <si>
+    <t>GnomAD EAS AF</t>
   </si>
   <si>
     <t>GnomAD AF</t>
   </si>
   <si>
+    <t>ExAC EAS HomoAlt Count</t>
+  </si>
+  <si>
+    <t>ExAC HomoAlt Count</t>
+  </si>
+  <si>
+    <t>GnomAD HomoAlt Count</t>
+  </si>
+  <si>
+    <t>GnomAD EAS HomoAlt Count</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>sampleMut</t>
+  </si>
+  <si>
+    <t>sampleAll</t>
+  </si>
+  <si>
+    <t>PhyloP Vertebrates Pred</t>
+  </si>
+  <si>
+    <t>PhyloP Placental Mammals Pred</t>
+  </si>
+  <si>
+    <t>GERP++_RS_pred</t>
+  </si>
+  <si>
     <t>Ens Condel Pred</t>
   </si>
   <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>DiseaseName/ModeInheritance</t>
+    <t>SIFT Pred</t>
+  </si>
+  <si>
+    <t>MutationTaster Pred</t>
+  </si>
+  <si>
+    <t>dbscSNV_RF_pred</t>
+  </si>
+  <si>
+    <t>dbscSNV_ADA_pred</t>
+  </si>
+  <si>
+    <t>SpliceAI Pred</t>
+  </si>
+  <si>
+    <t>ClinVar Significance</t>
+  </si>
+  <si>
+    <t>HGMDorClinvar</t>
+  </si>
+  <si>
+    <t>BGI in-house Database</t>
+  </si>
+  <si>
+    <t>HGMD pmID</t>
+  </si>
+  <si>
+    <t>BGI in-house Database pmID</t>
+  </si>
+  <si>
+    <t>Gene/Locus MIM number</t>
+  </si>
+  <si>
+    <t>ModeInheritance</t>
   </si>
   <si>
     <t>Disease/Inheritance</t>
@@ -166,25 +261,33 @@
     <t>Phenotype MIM number</t>
   </si>
   <si>
-    <t>ClinVar Significance</t>
-  </si>
-  <si>
-    <t>HGMDorClinvar</t>
-  </si>
-  <si>
-    <t>BGI in-house Database</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注说明</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
   </si>
   <si>
     <t>Note:</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>1.Sample ID</t>
+      <t>1.SampleID</t>
     </r>
     <r>
       <rPr>
@@ -197,14 +300,15 @@
     </r>
   </si>
   <si>
-    <t>1.Sample ID: Sample number</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
+    <t>1.SampleID: Sample number</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>2.#Chr</t>
     </r>
@@ -227,6 +331,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>3.Start</t>
     </r>
@@ -249,6 +354,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>4.Stop</t>
     </r>
@@ -271,8 +377,107 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-      </rPr>
-      <t>5.Gene Symbol</t>
+        <charset val="134"/>
+      </rPr>
+      <t>5.Ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：参考基因组碱基型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.Ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the genome base of the reference</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：样本基因组碱基型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the genome base of the sample</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7.Gene Symbol</t>
     </r>
     <r>
       <rPr>
@@ -285,13 +490,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>6.Transcript</t>
+    <t>7.Gene Symbol: Gene Symbol</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8.Transcript</t>
     </r>
     <r>
       <rPr>
@@ -304,16 +513,17 @@
     </r>
   </si>
   <si>
-    <t>6.Transcript: transcript number</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>7.cHGVS</t>
+    <t>8.Transcript: transcript number</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.cHGVS</t>
     </r>
     <r>
       <rPr>
@@ -326,16 +536,17 @@
     </r>
   </si>
   <si>
-    <t>7.cHGVS: the base change</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>8.pHGVS</t>
+    <t>9.cHGVS: the base change</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.pHGVS</t>
     </r>
     <r>
       <rPr>
@@ -348,16 +559,17 @@
     </r>
   </si>
   <si>
-    <t>8.pHGVS: the amino acid change</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>9.ExIn_ID</t>
+    <t>10.pHGVS: the amino acid change</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11.ExIn_ID</t>
     </r>
     <r>
       <rPr>
@@ -370,16 +582,40 @@
     </r>
   </si>
   <si>
-    <t>9.ExIn_ID: the exon subregion where the variant occurs</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>10.Zygosity</t>
+    <t>11.ExIn_ID: the exon subregion where the variant occurs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12.Function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：突变类型</t>
+    </r>
+  </si>
+  <si>
+    <t>12.Function: type of the variant</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13.Zygosity</t>
     </r>
     <r>
       <rPr>
@@ -395,6 +631,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>Hom</t>
     </r>
@@ -412,6 +649,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>Het</t>
     </r>
@@ -429,6 +667,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>Hemi</t>
     </r>
@@ -443,38 +682,259 @@
     </r>
   </si>
   <si>
-    <t>10.Zygosity: Hom represents a homozygous variant; Het represents a heterozygous variant; Hemi represents a hemizygous variant.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>11.Function</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：突变类型</t>
-    </r>
-  </si>
-  <si>
-    <t>11.Function: type of the variant</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>12.rsID</t>
+    <t>13.Zygosity: Hom represents a homozygous variant; Het represents a heterozygous variant; Hemi represents a hemizygous variant.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14.A.Depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：支持突变的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14.A.Depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number of reads supporting mutation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15.A.Ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：支持突变的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15.A.Ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>number of reads supporting mutation/total number of reads</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16.RepeatTag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：重复序列标签</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16.RepeatTag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>repetitive sequence tag</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17.Filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：突变质控结果</t>
+    </r>
+  </si>
+  <si>
+    <t>17.Filter: quality control of the variant</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18.rsID</t>
     </r>
     <r>
       <rPr>
@@ -490,6 +950,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>RS</t>
     </r>
@@ -504,16 +965,17 @@
     </r>
   </si>
   <si>
-    <t>12.rsID: a unique dbSNP record ID number of the variant</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>13.dbSNP Allele Freq</t>
+    <t>18.rsID: a unique dbSNP record ID number of the variant</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19.dbSNP Allele Freq</t>
     </r>
     <r>
       <rPr>
@@ -529,6 +991,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>SNP</t>
     </r>
@@ -543,16 +1006,84 @@
     </r>
   </si>
   <si>
-    <t>13.dbSNP Allele Freq: the allele frequency of the sequencing population in the dbSNP Database</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>14.1000G AF</t>
+    <t>19.dbSNP Allele Freq: the allele frequency of the sequencing population in the dbSNP Database</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20.1000G EAS AF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：千人计划中，东亚人群测序样本中关于此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的频率信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20.1000G EAS AF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the allele frequency of the SNP in the sequencing population of the East Asian population in the 1000G Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21.1000G AF</t>
     </r>
     <r>
       <rPr>
@@ -568,6 +1099,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>SNP</t>
     </r>
@@ -582,16 +1114,17 @@
     </r>
   </si>
   <si>
-    <t>14.1000G AF: the allele frequency of the sequencing population in the 1000G Database</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>15.ESP6500 AF</t>
+    <t>21.1000G AF: the allele frequency of the sequencing population in the 1000G Database</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22.ESP6500 AF</t>
     </r>
     <r>
       <rPr>
@@ -607,6 +1140,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>ESP6500</t>
     </r>
@@ -624,6 +1158,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>SNP</t>
     </r>
@@ -638,31 +1173,51 @@
     </r>
   </si>
   <si>
-    <t>15.ESP6500 AF: the allele frequency of the sequencing population in the ESP6500 Database</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>16.PVFD AF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：华大内部数据库全部测序样本中关于此</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
+    <t>22.ESP6500 AF: the allele frequency of the sequencing population in the ESP6500 Database</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23.ExAC EAS AF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ExAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库中，东亚人群测序样本中关于此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>SNP</t>
     </r>
@@ -682,8 +1237,208 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-      </rPr>
-      <t>17.GnomAD</t>
+        <charset val="134"/>
+      </rPr>
+      <t>23.ExAC EAS AF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the allele frequency of the SNP in the sequencing population of the East Asian population in the ExAC Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24.ExAC AF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ExAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库全部测序样本中关于此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的频率信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24.ExAC AF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the allele frequency of the SNP in the sequencing population in the ExAC Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25.GnomAD EAS AF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GnomAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库中，东亚人群测序样本中关于此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的频率信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25.GnomAD EAS AF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the allele frequency of the SNP in the sequencing population of the East Asian population in the GnomAD Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26.GnomAD</t>
     </r>
     <r>
       <rPr>
@@ -699,6 +1454,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>GnomAD</t>
     </r>
@@ -716,6 +1472,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>SNP</t>
     </r>
@@ -730,16 +1487,17 @@
     </r>
   </si>
   <si>
-    <t>17.GnomAD AF: the allele frequency of the sequencing population in the GnomAD Database</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>18.Ens Condel Pred</t>
+    <t>26.GnomAD AF: the allele frequency of the sequencing population in the GnomAD Database</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27.ExAC EAS HomoAlt Count</t>
     </r>
     <r>
       <rPr>
@@ -755,6 +1513,839 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ExAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库中，东亚人群测序样本中检出此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯合的个数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27.ExAC EAS HomoAlt Count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the number of people homozygous for this SNP in the sequencing population of the East Asian population in the ExAC Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28.ExAC HomoAlt Count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ExAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库全部测序样本中检出此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯合的个数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28.ExAC HomoAlt Count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the number of people homozygous for this SNP in the sequencing population in the ExAC Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29.GnomAD HomoAlt Count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GnomAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库全部测序样本中检出此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯合的个数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29.GnomAD HomoAlt Count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the number of people homozygous for this SNP in the sequencing population in the GnomAD Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30.GnomAD EAS HomoAlt Count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GnomAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库中，东亚人群测序样本中检出此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯合的个数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30.GnomAD EAS HomoAlt Count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the number of people homozygous for this SNP in the sequencing population of the East Asian population in the GnomAD Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31.frequency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BGI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部数据库中关于此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的频率信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31.frequency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the allele frequency of the SNP in the sequencing population in the BGI in-house Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32.sampleMut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BGI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部数据库全部测序样本中检出此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的个数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32.sampleMut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the number of people with this SNP detected in all sequencing population from the BGI in-house Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>33.sampleAll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BGI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部数据库全部测序样本个数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>33.sampleAll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the number of sequencing population in the BGI in-house Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>34.PhyloP Vertebrates Pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保守度在脊椎动物中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">PhyloP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预测结果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>34.PhyloP Vertebrates Pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PhyloP prediction results of the conservation of this SNP in vertebrates</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35.PhyloP Placental Mammals Pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保守度在哺乳动物中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">PhyloP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预测结果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35.PhyloP Placental Mammals Pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PhyloP prediction results of the conservation of this SNP in Placental Mammals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36.GERP++_RS_pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保守度的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GERP++_RS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预测结果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36.GERP++_RS_pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GERP++_RS prediction results of the conservation of this SNP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>37.Ens Condel Pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>Condel</t>
     </r>
@@ -769,38 +2360,667 @@
     </r>
   </si>
   <si>
-    <t>18.Ens Condel Pred: the predicted result of the Ens Condel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>19.Filter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：突变质控结果</t>
-    </r>
-  </si>
-  <si>
-    <t>19.Filter: quality control of the variant</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>20.Disease/Inheritance</t>
+    <t>37.Ens Condel Pred: the predicted result of the Ens Condel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>38.SIFT Pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对蛋白序列影响的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SIFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预测结果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>38.SIFT Pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the SIFT prediction result of the influence of this SNP on the protein sequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39.MutationTaster Pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对蛋白序列影响的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MutationTaster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预测结果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39.MutationTaster Pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the MutationTaster prediction result of the influence of this SNP on the protein sequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40.dbscSNV_RF_pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对序列剪切影响的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dbscSNV_RF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预测结果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40.dbscSNV_RF_pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the dbscSNV_RF prediction result of the influence of this SNP on sequence splicing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>41.dbscSNV_ADA_pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对序列剪切影响的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dbscSNV_ADA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预测结果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>41.dbscSNV_ADA_pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the dbscSNV_ADA prediction result of the influence of this SNP on sequence splicing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>42.SpliceAI Pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对序列剪切影响的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SpliceAI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预测结果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>42.SpliceAI Pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the SpliceAI prediction result of the influence of this SNP on sequence splicing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43.ClinVar Significance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ClinVar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库对该突变的临床意义判定</t>
+    </r>
+  </si>
+  <si>
+    <t>43.ClinVar Significance: the clinical significance of the variant in the ClinVar database</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>44.BGI in-house Database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BGI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变异库是否记录</t>
+    </r>
+  </si>
+  <si>
+    <t>44.BGI in-house Database: the variant is recorded in the BGI in-house Database or not</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>45.BGI in-house Database pmID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BGI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部数据库记录的文献</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pmID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>45.BGI in-house Database pmID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the recorded pmID of this SNP  in the BGI in-house Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>46.Gene/Locus MIM number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：基因在OMIM数据库中的编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>46.Gene/Locus MIM number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the number of the gene in the OMIM Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>47.Disease/Inheritance</t>
     </r>
     <r>
       <rPr>
@@ -816,6 +3036,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>AD</t>
     </r>
@@ -833,6 +3054,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>AR</t>
     </r>
@@ -850,6 +3072,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>XLD</t>
     </r>
@@ -867,6 +3090,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>X</t>
     </r>
@@ -884,6 +3108,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>XLR</t>
     </r>
@@ -901,6 +3126,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>X</t>
     </r>
@@ -918,6 +3144,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>XL</t>
     </r>
@@ -935,6 +3162,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>X</t>
     </r>
@@ -952,6 +3180,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>YL</t>
     </r>
@@ -969,6 +3198,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>Y</t>
     </r>
@@ -983,16 +3213,17 @@
     </r>
   </si>
   <si>
-    <t>20.Disease/Inheritance: the name and heredity model of the gene-related genetic disorder. Heredity model: AD is autosomal dominant inheritance, AR is autosomal recessive inheritance, XLD is X-linked dominant inheritance, XLR is X-linked recessive inheritance, XL is X-linked inheritance, YL is Y-linked inheritance.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>21.Phenotype MIM number</t>
+    <t>47.Disease/Inheritance: the name and heredity model of the gene-related genetic disorder. Heredity model: AD is autosomal dominant inheritance, AR is autosomal recessive inheritance, XLD is X-linked dominant inheritance, XLR is X-linked recessive inheritance, XL is X-linked inheritance, YL is Y-linked inheritance.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>48.Phenotype MIM number</t>
     </r>
     <r>
       <rPr>
@@ -1008,6 +3239,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>OMIM</t>
     </r>
@@ -1022,137 +3254,21 @@
     </r>
   </si>
   <si>
-    <t>21.Phenotype MIM number: the OMIM number of the phenotype</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>22.ClinVar Significance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>ClinVar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据库对该突变的临床意义判定</t>
-    </r>
-  </si>
-  <si>
-    <t>22.ClinVar Significance: the clinical significance of the variant in the ClinVar database</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>23.BGI in-house Database</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>BGI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变异库是否记录</t>
-    </r>
-  </si>
-  <si>
-    <t>23.BGI in-house Database: the variant is recorded in the BGI in-house Database or not</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>24.Report or not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：该突变是否需要报告</t>
-    </r>
-  </si>
-  <si>
-    <t>24.Report or not: the variant needs to be reported or not</t>
-  </si>
-  <si>
-    <r>
-      <t>备注说明</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文附表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>48.Phenotype MIM number: the OMIM number of the phenotype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -1169,28 +3285,6 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1199,25 +3293,171 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1229,33 +3469,229 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1263,64 +3699,345 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1642,518 +4359,991 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="3"/>
+    <col min="1" max="1" width="14.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.9" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.8" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="C23" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="B25" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="C25" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C26" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="B28" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-    </row>
+      <c r="C28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" ht="15"/>
+    <row r="51" ht="15"/>
+    <row r="52" ht="15"/>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="95.8984375" customWidth="1"/>
+    <col min="1" max="1" width="56.9" customWidth="1"/>
     <col min="2" max="2" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="18.75" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>76</v>
+      <c r="B12" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="18.75" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" ht="18.75" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" ht="18.75" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" ht="18.75" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" ht="18.75" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" ht="18.75" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" ht="18.75" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" ht="18.75" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" ht="18.75" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" ht="18.75" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" ht="18.75" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" ht="18.75" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" ht="18.75" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" ht="18.75" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" ht="18.75" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <autoFilter ref="A1:F49">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>